--- a/6-Changes.xlsx
+++ b/6-Changes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EF9B70-23EB-406F-9E58-8D2FC24E4790}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3027919D-3B8E-4B62-819A-7D8401B2C33C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="576" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>no decay</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>0.1, 0.9</t>
+  </si>
+  <si>
+    <t>---&gt;</t>
+  </si>
+  <si>
+    <t>batch</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,12 +209,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,6 +402,18 @@
     <tableColumn id="6" xr3:uid="{301F987C-6C65-417A-8299-6EE565F164C8}" name="lr"/>
     <tableColumn id="7" xr3:uid="{16B833C5-144E-4C65-82A6-A9FD938EE435}" name="loss"/>
     <tableColumn id="8" xr3:uid="{EBFAF451-37F2-40E3-B3DB-8EB96EF2989C}" name="epochs"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA3E5259-476E-495D-AD87-1C95A039B295}" name="Table3" displayName="Table3" ref="Q4:S5" totalsRowShown="0">
+  <autoFilter ref="Q4:S5" xr:uid="{6A7AA47F-E93F-47E7-AF9F-F419F746EAB2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{981B6DA0-B42D-439A-B2F9-526DD9960551}" name="batch"/>
+    <tableColumn id="2" xr3:uid="{5A6B337F-8399-4FF7-A7C6-5E75A3228881}" name="loss"/>
+    <tableColumn id="3" xr3:uid="{7EFEAA6F-10DD-4D71-94C5-B4E7DCB9A3EC}" name="epochs"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -650,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,9 +698,10 @@
     <col min="10" max="10" width="10.21875" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" customWidth="1"/>
     <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -681,21 +714,21 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -729,14 +762,14 @@
       <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -773,8 +806,15 @@
       <c r="O3">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -808,8 +848,17 @@
       <c r="O4">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -846,9 +895,20 @@
       <c r="O5">
         <v>340</v>
       </c>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5">
+        <v>1152</v>
+      </c>
+      <c r="R5">
+        <v>0.210293099284172</v>
+      </c>
+      <c r="S5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -883,7 +943,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -918,7 +978,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -953,7 +1013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -991,7 +1051,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1029,7 +1089,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1064,7 +1124,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
         <v>23</v>
       </c>
@@ -1093,7 +1153,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1182,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>23</v>
       </c>
@@ -1151,7 +1211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>23</v>
       </c>
@@ -1180,7 +1240,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
         <v>23</v>
       </c>
@@ -1326,9 +1386,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="G1:M1"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C13">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
@@ -1364,9 +1425,10 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/6-Changes.xlsx
+++ b/6-Changes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3027919D-3B8E-4B62-819A-7D8401B2C33C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F51A92-6788-4289-9805-E2D7E0C2D628}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="576" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>---&gt;</t>
   </si>
   <si>
-    <t>batch</t>
+    <t>batch_num</t>
   </si>
 </sst>
 </file>
@@ -243,67 +243,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -408,10 +348,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA3E5259-476E-495D-AD87-1C95A039B295}" name="Table3" displayName="Table3" ref="Q4:S5" totalsRowShown="0">
-  <autoFilter ref="Q4:S5" xr:uid="{6A7AA47F-E93F-47E7-AF9F-F419F746EAB2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA3E5259-476E-495D-AD87-1C95A039B295}" name="Table3" displayName="Table3" ref="Q4:S19" totalsRowShown="0">
+  <autoFilter ref="Q4:S19" xr:uid="{6A7AA47F-E93F-47E7-AF9F-F419F746EAB2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{981B6DA0-B42D-439A-B2F9-526DD9960551}" name="batch"/>
+    <tableColumn id="1" xr3:uid="{981B6DA0-B42D-439A-B2F9-526DD9960551}" name="batch_num"/>
     <tableColumn id="2" xr3:uid="{5A6B337F-8399-4FF7-A7C6-5E75A3228881}" name="loss"/>
     <tableColumn id="3" xr3:uid="{7EFEAA6F-10DD-4D71-94C5-B4E7DCB9A3EC}" name="epochs"/>
   </tableColumns>
@@ -685,7 +625,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +638,7 @@
     <col min="10" max="10" width="10.21875" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" customWidth="1"/>
     <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -899,13 +839,13 @@
         <v>42</v>
       </c>
       <c r="Q5">
-        <v>1152</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.210293099284172</v>
+        <v>0.21846322715282401</v>
       </c>
       <c r="S5">
-        <v>344</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -942,6 +882,15 @@
       <c r="O6">
         <v>1000</v>
       </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>0.195297971367836</v>
+      </c>
+      <c r="S6">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -977,6 +926,15 @@
       <c r="O7">
         <v>124</v>
       </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0.200694769620895</v>
+      </c>
+      <c r="S7">
+        <v>144</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -1012,6 +970,15 @@
       <c r="O8">
         <v>83</v>
       </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>0.19271206855773901</v>
+      </c>
+      <c r="S8">
+        <v>149</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1050,6 +1017,15 @@
       <c r="O9">
         <v>1000</v>
       </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>0.18466094136238001</v>
+      </c>
+      <c r="S9">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1059,7 +1035,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -1088,13 +1064,22 @@
       <c r="O10">
         <v>1000</v>
       </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>0.18747334182262401</v>
+      </c>
+      <c r="S10">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -1123,6 +1108,15 @@
       <c r="O11">
         <v>117</v>
       </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>0.19053462147712699</v>
+      </c>
+      <c r="S11">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
@@ -1152,6 +1146,15 @@
       <c r="O12">
         <v>1000</v>
       </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>0.18540780246257699</v>
+      </c>
+      <c r="S12">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
@@ -1181,6 +1184,15 @@
       <c r="O13">
         <v>346</v>
       </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>0.18429939448833399</v>
+      </c>
+      <c r="S13">
+        <v>97</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
@@ -1210,6 +1222,15 @@
       <c r="O14">
         <v>51</v>
       </c>
+      <c r="Q14">
+        <v>25</v>
+      </c>
+      <c r="R14">
+        <v>0.182082504034042</v>
+      </c>
+      <c r="S14">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
@@ -1239,6 +1260,15 @@
       <c r="O15">
         <v>98</v>
       </c>
+      <c r="Q15">
+        <v>50</v>
+      </c>
+      <c r="R15">
+        <v>0.18756060302257499</v>
+      </c>
+      <c r="S15">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
@@ -1268,8 +1298,17 @@
       <c r="O16">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>75</v>
+      </c>
+      <c r="R16">
+        <v>0.194274842739105</v>
+      </c>
+      <c r="S16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>23</v>
       </c>
@@ -1297,8 +1336,17 @@
       <c r="O17">
         <v>277</v>
       </c>
-    </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>0.194281205534935</v>
+      </c>
+      <c r="S17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>23</v>
       </c>
@@ -1326,8 +1374,17 @@
       <c r="O18">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>150</v>
+      </c>
+      <c r="R18">
+        <v>0.20384092628955799</v>
+      </c>
+      <c r="S18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
         <v>23</v>
       </c>
@@ -1355,8 +1412,17 @@
       <c r="O19">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>200</v>
+      </c>
+      <c r="R19">
+        <v>0.207383707165718</v>
+      </c>
+      <c r="S19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
         <v>23</v>
       </c>
@@ -1392,15 +1458,15 @@
     <mergeCell ref="R3:S3"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N20">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1412,7 +1478,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O20">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S19">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/6-Changes.xlsx
+++ b/6-Changes.xlsx
@@ -1,42 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F51A92-6788-4289-9805-E2D7E0C2D628}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B11BCA-9606-4860-A5AD-308B5A67EE70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="576" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="396" yWindow="348" windowWidth="22344" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>no decay</t>
   </si>
   <si>
-    <t>validation stopping</t>
-  </si>
-  <si>
     <t>bigger model</t>
   </si>
   <si>
-    <t>seed fixing</t>
-  </si>
-  <si>
-    <t>lr find</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -73,9 +69,6 @@
     <t>Adadelta test</t>
   </si>
   <si>
-    <t>batch size</t>
-  </si>
-  <si>
     <t>Batch test</t>
   </si>
   <si>
@@ -152,6 +145,27 @@
   </si>
   <si>
     <t>batch_num</t>
+  </si>
+  <si>
+    <t>Validation stopping</t>
+  </si>
+  <si>
+    <t>Lr find</t>
+  </si>
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>Seed fixing</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Re-evaluate</t>
+  </si>
+  <si>
+    <t>Sensitivity test</t>
   </si>
 </sst>
 </file>
@@ -229,61 +243,21 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -625,7 +599,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,37 +617,37 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -682,45 +656,45 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="O2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -732,10 +706,10 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M3">
         <v>0.1</v>
@@ -747,22 +721,22 @@
         <v>75</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -774,10 +748,10 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M4">
         <v>0.01</v>
@@ -789,27 +763,27 @@
         <v>111</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -821,10 +795,10 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M5">
         <v>1E-3</v>
@@ -835,8 +809,8 @@
       <c r="O5">
         <v>340</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>42</v>
+      <c r="P5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -850,13 +824,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>1000</v>
@@ -868,10 +842,10 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M6">
         <v>1E-4</v>
@@ -894,13 +868,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>1000</v>
@@ -912,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -938,13 +912,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>1000</v>
@@ -956,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M8">
         <v>0.1</v>
@@ -982,16 +956,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>1000</v>
@@ -1003,10 +977,10 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M9">
         <v>0.01</v>
@@ -1029,16 +1003,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>1000</v>
@@ -1050,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M10">
         <v>1E-3</v>
@@ -1076,13 +1050,13 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>1000</v>
@@ -1094,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -1119,8 +1093,17 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H12">
         <v>1000</v>
@@ -1132,10 +1115,10 @@
         <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1157,8 +1140,14 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>1000</v>
@@ -1170,13 +1159,13 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>0.32544058561325001</v>
@@ -1196,7 +1185,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>1000</v>
@@ -1208,10 +1197,10 @@
         <v>3</v>
       </c>
       <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
         <v>33</v>
-      </c>
-      <c r="L14" t="s">
-        <v>37</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1234,7 +1223,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>1000</v>
@@ -1246,10 +1235,10 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
         <v>33</v>
-      </c>
-      <c r="L15" t="s">
-        <v>37</v>
       </c>
       <c r="M15">
         <v>0.1</v>
@@ -1272,7 +1261,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>1000</v>
@@ -1284,10 +1273,10 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
         <v>33</v>
-      </c>
-      <c r="L16" t="s">
-        <v>37</v>
       </c>
       <c r="M16">
         <v>0.01</v>
@@ -1310,7 +1299,7 @@
     </row>
     <row r="17" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H17">
         <v>1000</v>
@@ -1322,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
         <v>33</v>
-      </c>
-      <c r="L17" t="s">
-        <v>37</v>
       </c>
       <c r="M17">
         <v>1E-3</v>
@@ -1348,7 +1337,7 @@
     </row>
     <row r="18" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>1000</v>
@@ -1360,13 +1349,13 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>0.276790261268615</v>
@@ -1386,7 +1375,7 @@
     </row>
     <row r="19" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>1000</v>
@@ -1398,13 +1387,13 @@
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>0.32729172706603998</v>
@@ -1424,7 +1413,7 @@
     </row>
     <row r="20" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>1000</v>
@@ -1436,13 +1425,13 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>0.24697981774806901</v>
@@ -1458,10 +1447,10 @@
     <mergeCell ref="R3:S3"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
